--- a/Primera Entrega/Clase 9- Cierre Estructura/Alumnos/TomasJesusDelValle_DelaPena/Clase Armar PC.xlsx
+++ b/Primera Entrega/Clase 9- Cierre Estructura/Alumnos/TomasJesusDelValle_DelaPena/Clase Armar PC.xlsx
@@ -1,12 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomas\Desktop\Mochila_0522C6\Primera Entrega\Clase 9- Cierre Estructura\Alumnos\TomasJesusDelValle_DelaPena\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E29C243-1EC8-4A94-9606-4EBBD1C6089E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Hoja 1" sheetId="1" r:id="rId4"/>
+    <sheet name="Hoja 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -160,65 +169,63 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="11">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="0"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font/>
     <font>
-      <b/>
-      <sz val="8.0"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color rgb="FF333333"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="10.0"/>
-      <color rgb="FF333333"/>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Arial"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <color rgb="FF000000"/>
-      <name val="&quot;Proxima Nova&quot;"/>
-    </font>
-    <font>
-      <sz val="10.0"/>
-      <color rgb="FF333333"/>
-      <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="8.0"/>
-      <color rgb="FF333333"/>
-      <name val="Gadugi"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="8.0"/>
-      <color rgb="FF333333"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <color rgb="FF000000"/>
-      <name val="Roboto"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="8">
@@ -226,7 +233,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -260,25 +267,34 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFEDF3FE"/>
+        <fgColor theme="0"/>
         <bgColor rgb="FFEDF3FE"/>
       </patternFill>
     </fill>
   </fills>
   <borders count="4">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -288,6 +304,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -302,74 +319,62 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="20">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="3" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="3" fillId="5" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="3" fillId="6" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="3" fillId="6" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="3" fillId="6" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="3" fillId="7" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="3" fillId="6" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="3" fillId="5" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="3" fillId="5" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -559,483 +564,493 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:B64"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:B15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="17.0"/>
-    <col customWidth="1" min="2" max="2" width="59.38"/>
+    <col min="1" max="1" width="19.1796875" style="14" customWidth="1"/>
+    <col min="2" max="2" width="72.54296875" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="12.6328125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1"/>
+    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="13"/>
       <c r="B1" s="1"/>
     </row>
-    <row r="2">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="3" t="s">
+      <c r="B2" s="4"/>
+    </row>
+    <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="4"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="5" t="s">
+      <c r="B3" s="6"/>
+    </row>
+    <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="5" t="s">
+    <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="5" t="s">
+    <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="5" t="s">
+    <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="s">
+    <row r="8" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="16"/>
+      <c r="B8" s="8"/>
+    </row>
+    <row r="9" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="4"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="5" t="s">
+      <c r="B9" s="6"/>
+    </row>
+    <row r="10" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="5" t="s">
+    <row r="11" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="5" t="s">
+    <row r="12" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="5" t="s">
+    <row r="13" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="3" t="s">
+    <row r="14" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="16"/>
+      <c r="B14" s="8"/>
+    </row>
+    <row r="15" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="4"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="5" t="s">
+      <c r="B15" s="6"/>
+    </row>
+    <row r="16" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="18" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="5" t="s">
+    <row r="17" spans="1:2" ht="13" x14ac:dyDescent="0.3">
+      <c r="A17" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="18" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="5" t="s">
+    <row r="18" spans="1:2" ht="13" x14ac:dyDescent="0.3">
+      <c r="A18" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="18" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="5" t="s">
+    <row r="19" spans="1:2" ht="13" x14ac:dyDescent="0.3">
+      <c r="A19" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="9"/>
+    <row r="20" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="17"/>
       <c r="B20" s="9"/>
     </row>
-    <row r="21">
-      <c r="A21" s="2" t="s">
+    <row r="21" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="3" t="s">
+      <c r="B21" s="4"/>
+    </row>
+    <row r="22" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B22" s="4"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="5" t="s">
+      <c r="B22" s="6"/>
+    </row>
+    <row r="23" spans="1:2" ht="13" x14ac:dyDescent="0.3">
+      <c r="A23" s="15" t="s">
         <v>2</v>
       </c>
       <c r="B23" s="10" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="5" t="s">
+    <row r="24" spans="1:2" ht="13" x14ac:dyDescent="0.3">
+      <c r="A24" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="5" t="s">
+    <row r="25" spans="1:2" ht="13" x14ac:dyDescent="0.3">
+      <c r="A25" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="5" t="s">
+    <row r="26" spans="1:2" ht="13" x14ac:dyDescent="0.3">
+      <c r="A26" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B26" s="11" t="s">
+      <c r="B26" s="10" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="5" t="s">
+    <row r="27" spans="1:2" ht="13" x14ac:dyDescent="0.3">
+      <c r="A27" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="B27" s="11" t="s">
+      <c r="B27" s="10" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="6"/>
-      <c r="B28" s="6"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="3" t="s">
+    <row r="28" spans="1:2" ht="13" x14ac:dyDescent="0.3">
+      <c r="A28" s="16"/>
+      <c r="B28" s="8"/>
+    </row>
+    <row r="29" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B29" s="4"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="5" t="s">
+      <c r="B29" s="6"/>
+    </row>
+    <row r="30" spans="1:2" ht="13" x14ac:dyDescent="0.3">
+      <c r="A30" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="5" t="s">
+    <row r="31" spans="1:2" ht="13" x14ac:dyDescent="0.3">
+      <c r="A31" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B31" s="7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="5" t="s">
+    <row r="32" spans="1:2" ht="13" x14ac:dyDescent="0.3">
+      <c r="A32" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B32" s="7" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="5" t="s">
+    <row r="33" spans="1:2" ht="13" x14ac:dyDescent="0.3">
+      <c r="A33" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B33" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" s="5" t="s">
+    <row r="34" spans="1:2" ht="13" x14ac:dyDescent="0.3">
+      <c r="A34" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="B34" s="7" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="6"/>
-      <c r="B35" s="6"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="3" t="s">
+    <row r="35" spans="1:2" ht="13" x14ac:dyDescent="0.3">
+      <c r="A35" s="16"/>
+      <c r="B35" s="8"/>
+    </row>
+    <row r="36" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B36" s="4"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="5" t="s">
+      <c r="B36" s="6"/>
+    </row>
+    <row r="37" spans="1:2" ht="13" x14ac:dyDescent="0.3">
+      <c r="A37" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B37" s="5" t="s">
+      <c r="B37" s="7" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" s="5" t="s">
+    <row r="38" spans="1:2" ht="13" x14ac:dyDescent="0.3">
+      <c r="A38" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="B38" s="7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" s="5" t="s">
+    <row r="39" spans="1:2" ht="13" x14ac:dyDescent="0.3">
+      <c r="A39" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B39" s="5" t="s">
+      <c r="B39" s="7" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" s="5" t="s">
+    <row r="40" spans="1:2" ht="13" x14ac:dyDescent="0.3">
+      <c r="A40" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="B40" s="7" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" s="5" t="s">
+    <row r="41" spans="1:2" ht="13" x14ac:dyDescent="0.3">
+      <c r="A41" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="B41" s="5" t="s">
+      <c r="B41" s="7" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" s="9"/>
+    <row r="42" spans="1:2" ht="13" x14ac:dyDescent="0.3">
+      <c r="A42" s="17"/>
       <c r="B42" s="9"/>
     </row>
-    <row r="43">
-      <c r="A43" s="2" t="s">
+    <row r="43" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="3" t="s">
+      <c r="B43" s="4"/>
+    </row>
+    <row r="44" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A44" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B44" s="4"/>
-    </row>
-    <row r="45">
-      <c r="A45" s="5" t="s">
+      <c r="B44" s="6"/>
+    </row>
+    <row r="45" spans="1:2" ht="13" x14ac:dyDescent="0.3">
+      <c r="A45" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B45" s="5" t="s">
+      <c r="B45" s="7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" s="5" t="s">
+    <row r="46" spans="1:2" ht="13" x14ac:dyDescent="0.3">
+      <c r="A46" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B46" s="5" t="s">
+      <c r="B46" s="7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" s="5" t="s">
+    <row r="47" spans="1:2" ht="13" x14ac:dyDescent="0.3">
+      <c r="A47" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B47" s="5" t="s">
+      <c r="B47" s="7" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" s="5" t="s">
+    <row r="48" spans="1:2" ht="13" x14ac:dyDescent="0.3">
+      <c r="A48" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B48" s="5" t="s">
+      <c r="B48" s="7" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" s="5" t="s">
+    <row r="49" spans="1:2" ht="13" x14ac:dyDescent="0.3">
+      <c r="A49" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="B49" s="5" t="s">
+      <c r="B49" s="7" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" s="6"/>
-      <c r="B50" s="6"/>
-    </row>
-    <row r="51">
-      <c r="A51" s="3" t="s">
+    <row r="50" spans="1:2" ht="13" x14ac:dyDescent="0.3">
+      <c r="A50" s="16"/>
+      <c r="B50" s="8"/>
+    </row>
+    <row r="51" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A51" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B51" s="4"/>
-    </row>
-    <row r="52">
-      <c r="A52" s="5" t="s">
+      <c r="B51" s="6"/>
+    </row>
+    <row r="52" spans="1:2" ht="13" x14ac:dyDescent="0.3">
+      <c r="A52" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B52" s="5" t="s">
+      <c r="B52" s="7" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" s="5" t="s">
+    <row r="53" spans="1:2" ht="13" x14ac:dyDescent="0.3">
+      <c r="A53" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B53" s="12" t="s">
+      <c r="B53" s="11" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" s="5" t="s">
+    <row r="54" spans="1:2" ht="13" x14ac:dyDescent="0.3">
+      <c r="A54" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B54" s="13" t="s">
+      <c r="B54" s="19" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" s="5" t="s">
+    <row r="55" spans="1:2" ht="13" x14ac:dyDescent="0.3">
+      <c r="A55" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B55" s="14" t="s">
+      <c r="B55" s="10" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" s="5" t="s">
+    <row r="56" spans="1:2" ht="13" x14ac:dyDescent="0.3">
+      <c r="A56" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="B56" s="12" t="s">
+      <c r="B56" s="11" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" s="6"/>
-      <c r="B57" s="6"/>
-    </row>
-    <row r="58">
-      <c r="A58" s="3" t="s">
+    <row r="57" spans="1:2" ht="13" x14ac:dyDescent="0.3">
+      <c r="A57" s="16"/>
+      <c r="B57" s="8"/>
+    </row>
+    <row r="58" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A58" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B58" s="4"/>
-    </row>
-    <row r="59">
-      <c r="A59" s="5" t="s">
+      <c r="B58" s="6"/>
+    </row>
+    <row r="59" spans="1:2" ht="13" x14ac:dyDescent="0.3">
+      <c r="A59" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B59" s="15" t="s">
+      <c r="B59" s="18" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" s="5" t="s">
+    <row r="60" spans="1:2" ht="13" x14ac:dyDescent="0.3">
+      <c r="A60" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B60" s="15" t="s">
+      <c r="B60" s="18" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" s="5" t="s">
+    <row r="61" spans="1:2" ht="13" x14ac:dyDescent="0.3">
+      <c r="A61" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B61" s="16" t="s">
+      <c r="B61" s="18" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" s="5" t="s">
+    <row r="62" spans="1:2" ht="13" x14ac:dyDescent="0.3">
+      <c r="A62" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B62" s="17" t="s">
+      <c r="B62" s="12" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" s="5" t="s">
+    <row r="63" spans="1:2" ht="13" x14ac:dyDescent="0.3">
+      <c r="A63" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="B63" s="15" t="s">
+      <c r="B63" s="18" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" s="9"/>
+    <row r="64" spans="1:2" ht="13" x14ac:dyDescent="0.3">
+      <c r="A64" s="17"/>
       <c r="B64" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="A29:B29"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="A22:B22"/>
     <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A58:B58"/>
   </mergeCells>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>